--- a/Tension/artigo_cobem/imagens/resultados dos modulos de young.xlsx
+++ b/Tension/artigo_cobem/imagens/resultados dos modulos de young.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\programing\Latex\PapersEmAndamento\Tension\artigo_cobem\imagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6B9BC1-6875-4516-B215-5F16FBB9FE7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B371D-AC7D-41F6-8819-679A39F24C45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="15840" xr2:uid="{1538F110-639C-48EE-BA58-BCA312149310}"/>
   </bookViews>
@@ -206,23 +206,27 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$M$2:$Q$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Planilha1!$M$2:$Q$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Planilha1!$M$2,Planilha1!$O$2:$Q$2)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>235</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
@@ -230,23 +234,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Planilha1!$C$4,Planilha1!$C$9,Planilha1!$C$14,Planilha1!$C$19,Planilha1!$C$24)</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>(Planilha1!$C$4,Planilha1!$C$9,Planilha1!$C$14,Planilha1!$C$19,Planilha1!$C$24)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Planilha1!$C$4,Planilha1!$C$14,Planilha1!$C$19,Planilha1!$C$24)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0.84029200000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89612199999999986</c:v>
+                  <c:v>0.8542820000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8542820000000001</c:v>
+                  <c:v>0.86101799999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86101799999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.89852999999999983</c:v>
                 </c:pt>
               </c:numCache>
@@ -437,7 +445,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -514,7 +522,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1392,7 +1400,7 @@
   <dimension ref="A2:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1661,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tension/artigo_cobem/imagens/resultados dos modulos de young.xlsx
+++ b/Tension/artigo_cobem/imagens/resultados dos modulos de young.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\programing\Latex\PapersEmAndamento\Tension\artigo_cobem\imagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunuy\Documents\ufu\EPTA\Tension 2019\artigo_cobem\artigo_cobem\imagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B371D-AC7D-41F6-8819-679A39F24C45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="15840" xr2:uid="{1538F110-639C-48EE-BA58-BCA312149310}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -111,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,9 +164,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -260,7 +259,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3E40-47CC-9B78-7244E322C192}"/>
             </c:ext>
@@ -276,11 +275,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="301905080"/>
-        <c:axId val="301906392"/>
+        <c:axId val="-1602879232"/>
+        <c:axId val="-1602873792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="301905080"/>
+        <c:axId val="-1602879232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,6 +308,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -331,7 +331,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -366,10 +366,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301906392"/>
+        <c:crossAx val="-1602873792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -377,7 +377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301906392"/>
+        <c:axId val="-1602873792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,6 +419,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -441,11 +442,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -470,10 +471,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301905080"/>
+        <c:crossAx val="-1602879232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -516,7 +517,7 @@
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1079,7 +1080,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8FEA5E-9726-42BA-BED0-B0E7EDB91FD0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8FEA5E-9726-42BA-BED0-B0E7EDB91FD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,11 +1397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C8CDF9-B197-4542-9855-092A2EE06925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="G12" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
